--- a/estimation.xlsx
+++ b/estimation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="46">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -138,6 +138,24 @@
   </si>
   <si>
     <t>combat entre survivant/monstre</t>
+  </si>
+  <si>
+    <t>recherche de debut/réapprendre a utilisé android studio</t>
+  </si>
+  <si>
+    <t>réaprendre utilisation d'android studio/commencement  de linterface d'accueil</t>
+  </si>
+  <si>
+    <t>recherche/interface regle</t>
+  </si>
+  <si>
+    <t>recherche/suite conception de linterface</t>
+  </si>
+  <si>
+    <t>suite conception de linterface</t>
+  </si>
+  <si>
+    <t>layout activite/ressources</t>
   </si>
 </sst>
 </file>
@@ -281,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -318,6 +336,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1589,7 +1608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -1698,8 +1717,8 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="11">
         <f>SUM(C16+C17+C18+C19+C20)</f>
         <v>95</v>
@@ -1793,10 +1812,10 @@
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="19"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="11">
         <f>SUM(C26:C33)</f>
         <v>20</v>
@@ -1823,8 +1842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1881,34 +1900,70 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
+      <c r="A14" s="12">
+        <v>43178</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="15">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="18">
+        <v>43179</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="15">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="18">
+        <v>43180</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="15">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="15"/>
+      <c r="A17" s="18">
+        <v>43185</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="15">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="15"/>
+      <c r="A18" s="18">
+        <v>43186</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="15"/>
+      <c r="A19" s="18">
+        <v>43187</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="15">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
@@ -1996,13 +2051,13 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="19"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2024,22 +2079,22 @@
       <c r="A42" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="21"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B43" s="21"/>
+      <c r="B43" s="22"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B44" s="21"/>
+      <c r="B44" s="22"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B45" s="21"/>
+      <c r="B45" s="22"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B46" s="21"/>
+      <c r="B46" s="22"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B47" s="22"/>
+      <c r="B47" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2231,10 +2286,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="19"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>0</v>
@@ -2259,22 +2314,22 @@
       <c r="A42" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="21"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B43" s="21"/>
+      <c r="B43" s="22"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B44" s="21"/>
+      <c r="B44" s="22"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B45" s="21"/>
+      <c r="B45" s="22"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B46" s="21"/>
+      <c r="B46" s="22"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B47" s="22"/>
+      <c r="B47" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2464,10 +2519,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="19"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>0</v>
@@ -2492,22 +2547,22 @@
       <c r="A42" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="21"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B43" s="21"/>
+      <c r="B43" s="22"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B44" s="21"/>
+      <c r="B44" s="22"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B45" s="21"/>
+      <c r="B45" s="22"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B46" s="21"/>
+      <c r="B46" s="22"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B47" s="22"/>
+      <c r="B47" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2697,10 +2752,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="19"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>0</v>
@@ -2725,22 +2780,22 @@
       <c r="A42" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="21"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B43" s="21"/>
+      <c r="B43" s="22"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B44" s="21"/>
+      <c r="B44" s="22"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B45" s="21"/>
+      <c r="B45" s="22"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B46" s="21"/>
+      <c r="B46" s="22"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B47" s="22"/>
+      <c r="B47" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/estimation.xlsx
+++ b/estimation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="54">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -95,9 +95,6 @@
     <t>Semaine 15</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Le projet doit être décomposé en plusieurs sections indépendantes qui doivent être priorisées et estimées</t>
   </si>
   <si>
@@ -156,6 +153,33 @@
   </si>
   <si>
     <t>layout activite/ressources</t>
+  </si>
+  <si>
+    <t>travail constant, mise en place des interfaces</t>
+  </si>
+  <si>
+    <t>commencer creation logo sur adobe illustrator/apprendre a se servir dillustrator</t>
+  </si>
+  <si>
+    <t>finition contour des logos</t>
+  </si>
+  <si>
+    <t>finition des logos et mis en place dans le programme/ajout de toast/changement de width</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gestion des width des ressources/activityonresult </t>
+  </si>
+  <si>
+    <t>gestion pourcentage width/regler probleme/edittext nom du bunker</t>
+  </si>
+  <si>
+    <t>gerer layout protection</t>
+  </si>
+  <si>
+    <t>verification des widths (ne peut plus aller plus bas que 0)/commencement ravitaillement</t>
+  </si>
+  <si>
+    <t>finition du bouton ravitaillement</t>
   </si>
 </sst>
 </file>
@@ -1621,7 +1645,7 @@
   <sheetData>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -1636,12 +1660,12 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -1666,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="3">
         <v>15</v>
@@ -1677,7 +1701,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="3">
         <v>10</v>
@@ -1688,7 +1712,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="3">
         <v>20</v>
@@ -1699,7 +1723,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="3">
         <v>35</v>
@@ -1710,7 +1734,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="3">
         <v>15</v>
@@ -1752,7 +1776,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="3">
         <v>10</v>
@@ -1763,7 +1787,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="3">
         <v>10</v>
@@ -1842,8 +1866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView view="pageLayout" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1904,7 +1928,7 @@
         <v>43178</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="15">
         <v>2.5</v>
@@ -1915,7 +1939,7 @@
         <v>43179</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="15">
         <v>5.5</v>
@@ -1926,7 +1950,7 @@
         <v>43180</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="15">
         <v>5</v>
@@ -1937,7 +1961,7 @@
         <v>43185</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="15">
         <v>1.5</v>
@@ -1948,7 +1972,7 @@
         <v>43186</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="15">
         <v>2</v>
@@ -1959,7 +1983,7 @@
         <v>43187</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="15">
         <v>3.5</v>
@@ -2062,24 +2086,28 @@
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C39" s="17"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="B40" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="7"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B42" s="21"/>
+        <v>29</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B43" s="22"/>
@@ -2111,8 +2139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2169,46 +2197,92 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
+      <c r="A14" s="12">
+        <v>43193</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="15">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="18">
+        <v>43194</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="18">
+        <v>43195</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="15">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="15"/>
+      <c r="A17" s="18">
+        <v>43200</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="15">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="15"/>
+      <c r="A18" s="18">
+        <v>43201</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="15">
+        <v>4</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="15"/>
+      <c r="A19" s="18">
+        <v>43206</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="15">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="15"/>
+      <c r="A20" s="18">
+        <v>43207</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="15"/>
+      <c r="A21" s="18">
+        <v>43208</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
@@ -2292,18 +2366,18 @@
       <c r="B37" s="20"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C39" s="17"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B40" s="4"/>
     </row>
@@ -2312,7 +2386,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B42" s="21"/>
     </row>
@@ -2530,13 +2604,13 @@
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C39" s="17"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B40" s="4"/>
     </row>
@@ -2545,7 +2619,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B42" s="21"/>
     </row>
@@ -2616,7 +2690,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -2763,13 +2837,13 @@
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C39" s="17"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B40" s="4"/>
     </row>
@@ -2778,7 +2852,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B42" s="21"/>
     </row>

--- a/estimation.xlsx
+++ b/estimation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -180,6 +180,30 @@
   </si>
   <si>
     <t>finition du bouton ravitaillement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verification des widths (mise en place ress max, ainsi </t>
+  </si>
+  <si>
+    <t>verification des widths, apréhention adobe illustrator</t>
+  </si>
+  <si>
+    <t>création dun bouton menu</t>
+  </si>
+  <si>
+    <t>gerer le changement dactivité avec le bouton menu (tentative passer les extra)</t>
+  </si>
+  <si>
+    <t>création de la bd avec sqlite/ tentative dinsertion de donnée dans la bd</t>
+  </si>
+  <si>
+    <t>insertion des données corrigées/mis en place de select afin de verifier les insert</t>
+  </si>
+  <si>
+    <t>width fonctionnel 100% avec select BD, tentative insertion nomBunker et nbreSurvivant dans la BD</t>
+  </si>
+  <si>
+    <t>insertion du nom echoué après plusieurs tentative, insert du nbresurvivant reussit, correctif appliqué à la gestion des widths (max et min)</t>
   </si>
 </sst>
 </file>
@@ -1867,7 +1891,7 @@
   <dimension ref="A6:C47"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:B47"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2139,8 +2163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2285,7 +2309,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="4"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="4"/>
       <c r="C22" s="15"/>
     </row>
@@ -2379,7 +2403,9 @@
       <c r="A40" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="4"/>
+      <c r="B40" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="7"/>
@@ -2388,7 +2414,9 @@
       <c r="A42" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B42" s="21"/>
+      <c r="B42" s="21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B43" s="22"/>
@@ -2420,8 +2448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2478,39 +2506,81 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
+      <c r="A14" s="12">
+        <v>43213</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="15">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="18">
+        <v>43215</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="18">
+        <v>43220</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="15">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="15"/>
+      <c r="A17" s="18">
+        <v>43221</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="15"/>
+      <c r="A18" s="18">
+        <v>43222</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="15">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="15"/>
+      <c r="A19" s="18">
+        <v>43223</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="15">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="15"/>
+      <c r="A20" s="18">
+        <v>43224</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="15">
+        <v>4</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
@@ -2599,7 +2669,7 @@
       <c r="B37" s="20"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">

--- a/estimation.xlsx
+++ b/estimation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="70">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -204,6 +204,30 @@
   </si>
   <si>
     <t>insertion du nom echoué après plusieurs tentative, insert du nbresurvivant reussit, correctif appliqué à la gestion des widths (max et min)</t>
+  </si>
+  <si>
+    <t>ajout taux protection, détails dans ressources. Création de l'activity "Survivant", tentative de création d'un survivant et lajouter dans une liste ensuite et afficher cette liste dans une listView</t>
+  </si>
+  <si>
+    <t>beaucoup de correction appliqués dans cette itération, ajout dune base de donnée</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>gestion de lactivité survivant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gestion de la suppression dun survivant </t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>tentative correction supprimerUser dans activité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ajout de lactivity survivant qui permet dafficher les données des survivants. Gestion des relative/linear layout mieux executer car plus de compréhension qu'au début du projet. </t>
   </si>
 </sst>
 </file>
@@ -2163,7 +2187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B42" sqref="B42:B47"/>
     </sheetView>
   </sheetViews>
@@ -2448,8 +2472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView view="pageLayout" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2583,7 +2607,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="4"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="4"/>
       <c r="C21" s="15"/>
     </row>
@@ -2682,7 +2706,9 @@
       <c r="A40" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="4"/>
+      <c r="B40" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="7"/>
@@ -2691,7 +2717,9 @@
       <c r="A42" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B42" s="21"/>
+      <c r="B42" s="21" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B43" s="22"/>
@@ -2723,8 +2751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2781,24 +2809,48 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
+      <c r="A14" s="12">
+        <v>43226</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="18">
+        <v>43227</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="18">
+        <v>43228</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="15"/>
+      <c r="A17" s="18">
+        <v>43234</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
@@ -2902,7 +2954,7 @@
       <c r="B37" s="20"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2915,7 +2967,9 @@
       <c r="A40" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="4"/>
+      <c r="B40" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="7"/>
@@ -2924,7 +2978,9 @@
       <c r="A42" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B42" s="21"/>
+      <c r="B42" s="21" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B43" s="22"/>
